--- a/data/evaluation/evaluation_South_Spring_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Cucumbers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>586.6994422994422</v>
+        <v>578.5913341913341</v>
       </c>
       <c r="C3" t="n">
-        <v>731926.1689802728</v>
+        <v>716196.4392505432</v>
       </c>
       <c r="D3" t="n">
-        <v>855.5268370894468</v>
+        <v>846.283899912165</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4712891727432695</v>
+        <v>-0.4396698892385247</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>581.8887144652671</v>
+        <v>584.9529275972851</v>
       </c>
       <c r="C4" t="n">
-        <v>682648.6500112016</v>
+        <v>695269.147163131</v>
       </c>
       <c r="D4" t="n">
-        <v>826.2255442742022</v>
+        <v>833.8280081426451</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3722334439122383</v>
+        <v>-0.3976026704834656</v>
       </c>
     </row>
     <row r="5">
